--- a/TEST LCO 16-8-25.xlsx
+++ b/TEST LCO 16-8-25.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/tungstonlabs/abc_BE/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/tungstonlabs/Desktop/ABC/abc_BE/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{C16D56EF-F46B-7C4F-813D-E29C8F8D60C4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{24D7425E-1E7C-004A-A435-58420D090472}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="38400" windowHeight="21600" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="38400" windowHeight="21100" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -45,9 +45,6 @@
     <t>Santhosh KD</t>
   </si>
   <si>
-    <t>santhoshaluva@gmail.com</t>
-  </si>
-  <si>
     <t>Thottumugham,Edayappuram, Aluva</t>
   </si>
   <si>
@@ -72,18 +69,6 @@
     <t>Womens Hostel Road UC college ALUVA</t>
   </si>
   <si>
-    <t>antonykj8891@gmail.com</t>
-  </si>
-  <si>
-    <t>babuav@yahoo.com</t>
-  </si>
-  <si>
-    <t>satchannels@gmail.com</t>
-  </si>
-  <si>
-    <t>jalaluc1976@gmail.com</t>
-  </si>
-  <si>
     <t>LCO CODE</t>
   </si>
   <si>
@@ -273,117 +258,60 @@
     <t>GALAXY VISION</t>
   </si>
   <si>
-    <t>satheeshkg01@gmail.com</t>
-  </si>
-  <si>
     <t>Bavapady, Malayidamthuruth</t>
   </si>
   <si>
-    <t>baburaman@gmail.com</t>
-  </si>
-  <si>
     <t>Alangad PO ,Kottappuram,Aluva</t>
   </si>
   <si>
-    <t>lizemuhammes@gmail.com</t>
-  </si>
-  <si>
     <t>Pallikavala,Thaikkattukara PO,Aluva</t>
   </si>
   <si>
-    <t>scastarcabletv@gmail.com</t>
-  </si>
-  <si>
     <t>Maliekal Building, Cohin Bank Junction, Asokapuram PO,Aluva</t>
   </si>
   <si>
-    <t>bijusharp72@gmail.com</t>
-  </si>
-  <si>
     <t>Thottumugham, Kuttamassery, Aluva</t>
   </si>
   <si>
-    <t>rekhaasokan2@gmail.com</t>
-  </si>
-  <si>
     <t>Uliyannoor. P. O , Aluva</t>
   </si>
   <si>
-    <t>starvisionaluva@gmail.com</t>
-  </si>
-  <si>
     <t>Mampilly Building,Rail Road Aluva</t>
   </si>
   <si>
-    <t>skyvisionkeezhmzd@gmail.com</t>
-  </si>
-  <si>
     <t>Erumathala P O,Keezhmadu,Aluva</t>
   </si>
   <si>
-    <t>mrmartinstar@gmail.com</t>
-  </si>
-  <si>
     <t>Kompara,Aluva</t>
   </si>
   <si>
-    <t>judeedathala@gmail.com</t>
-  </si>
-  <si>
     <t>NAD P.O, Adivaram, Aluva</t>
-  </si>
-  <si>
-    <t>pshinith@yahoo.com</t>
   </si>
   <si>
     <t xml:space="preserve">Pazhanganad, Kompara Kodikuthumala
 </t>
   </si>
   <si>
-    <t>shaijupb84@gmail.com</t>
-  </si>
-  <si>
     <t xml:space="preserve">Pazhanganad, Kizhakkambalam PO
 </t>
   </si>
   <si>
-    <t>aniluniversal@yahoo.com</t>
-  </si>
-  <si>
     <t>13/529,YESUS Shopping Complex, UC College PO</t>
   </si>
   <si>
-    <t>jineeshali@gmail.com</t>
-  </si>
-  <si>
     <t>136/2 Kadungalloor, UC College P O</t>
   </si>
   <si>
-    <t>venucable83@gmail.com</t>
-  </si>
-  <si>
     <t>Karukunnam,UC College PO</t>
   </si>
   <si>
-    <t>shajima9@gmail.com</t>
-  </si>
-  <si>
     <t>SPW Road,Companypady,Thaikkattukara,Aluva</t>
   </si>
   <si>
-    <t>wavevisionkunjattukara@gmail.com</t>
-  </si>
-  <si>
     <t>Kunjattukara,Edathala PO,Aluva,683565</t>
   </si>
   <si>
-    <t>babymanappadan@gmail.com</t>
-  </si>
-  <si>
     <t>Assissi,Aluva</t>
-  </si>
-  <si>
-    <t>galaxyvision128@gmail.com</t>
   </si>
   <si>
     <t>Elookkara, Muppathadam P O, Aluva</t>
@@ -454,12 +382,6 @@
     <t>NNT 34, NNT 39</t>
   </si>
   <si>
-    <t>newdigital@gmail.com</t>
-  </si>
-  <si>
-    <t>bijuthomas06@yahoo.com</t>
-  </si>
-  <si>
     <t>Millipady,kadoopadam</t>
   </si>
   <si>
@@ -524,13 +446,91 @@
   </si>
   <si>
     <t>WVK 07,WVK 25, WVK 36</t>
+  </si>
+  <si>
+    <t>nthoshaluva@gmail.com</t>
+  </si>
+  <si>
+    <t>bidsdjuthomas06@yahoo.com</t>
+  </si>
+  <si>
+    <t>sathdseeshkg01@gmail.com</t>
+  </si>
+  <si>
+    <t>antonyvvkj8891@gmail.com</t>
+  </si>
+  <si>
+    <t>babvvuav@yahoo.com</t>
+  </si>
+  <si>
+    <t>satcvvhannels@gmail.com</t>
+  </si>
+  <si>
+    <t>jalaluvvc1976@gmail.com</t>
+  </si>
+  <si>
+    <t>babvvuraman@gmail.com</t>
+  </si>
+  <si>
+    <t>newdigvvital@gmail.com</t>
+  </si>
+  <si>
+    <t>lizemuhvvammes@gmail.com</t>
+  </si>
+  <si>
+    <t>scastarvvcabletv@gmail.com</t>
+  </si>
+  <si>
+    <t>bijusvvharp72@gmail.com</t>
+  </si>
+  <si>
+    <t>rekhvvaasokan2@gmail.com</t>
+  </si>
+  <si>
+    <t>starvvvisionaluva@gmail.com</t>
+  </si>
+  <si>
+    <t>skyvivvsionkeezhmzd@gmail.com</t>
+  </si>
+  <si>
+    <t>mrmarvvtinstar@gmail.com</t>
+  </si>
+  <si>
+    <t>judeedavvthala@gmail.com</t>
+  </si>
+  <si>
+    <t>pshinivvth@yahoo.com</t>
+  </si>
+  <si>
+    <t>shaijvvupb84@gmail.com</t>
+  </si>
+  <si>
+    <t>anilunivvversal@yahoo.com</t>
+  </si>
+  <si>
+    <t>jineesvvhali@gmail.com</t>
+  </si>
+  <si>
+    <t>vevvnucable83@gmail.com</t>
+  </si>
+  <si>
+    <t>shavvjima9@gmail.com</t>
+  </si>
+  <si>
+    <t>wavvvevisionkunjattukara@gmail.com</t>
+  </si>
+  <si>
+    <t>babvvymanappadan@gmail.com</t>
+  </si>
+  <si>
+    <t>galavvxyvision128@gmail.com</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -542,6 +542,14 @@
       <b/>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -590,10 +598,11 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="1" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
@@ -606,8 +615,10 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="1" applyBorder="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -889,7 +900,7 @@
   <dimension ref="A1:H40"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B41" sqref="B41"/>
+      <selection activeCell="F8" sqref="F8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.1640625" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -906,13 +917,13 @@
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
-        <v>19</v>
+        <v>14</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="D1" s="1" t="s">
         <v>0</v>
@@ -932,250 +943,250 @@
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A2" s="2" t="s">
-        <v>22</v>
+        <v>17</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>23</v>
+        <v>18</v>
       </c>
       <c r="C2" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="D2" s="2" t="s">
+      <c r="D2" s="8" t="s">
+        <v>139</v>
+      </c>
+      <c r="E2" s="3">
+        <v>801822849302</v>
+      </c>
+      <c r="F2" s="4">
+        <v>9247574780</v>
+      </c>
+      <c r="G2" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="E2" s="3">
-        <v>801855849302</v>
-      </c>
-      <c r="F2" s="4">
-        <v>9447574780</v>
-      </c>
-      <c r="G2" s="2" t="s">
-        <v>7</v>
-      </c>
       <c r="H2" s="2" t="s">
-        <v>122</v>
+        <v>98</v>
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A3" s="2" t="s">
-        <v>24</v>
+        <v>19</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>146</v>
-      </c>
-      <c r="D3" s="2" t="s">
-        <v>142</v>
+        <v>120</v>
+      </c>
+      <c r="D3" s="8" t="s">
+        <v>140</v>
       </c>
       <c r="E3" s="3">
         <v>243805888418</v>
       </c>
       <c r="F3" s="4">
-        <v>9847671846</v>
+        <v>9847441846</v>
       </c>
       <c r="G3" s="2" t="s">
-        <v>144</v>
+        <v>118</v>
       </c>
       <c r="H3" s="2" t="s">
-        <v>159</v>
+        <v>133</v>
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A4" s="2" t="s">
-        <v>26</v>
+        <v>21</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>27</v>
+        <v>22</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="D4" s="2" t="s">
-        <v>82</v>
+        <v>23</v>
+      </c>
+      <c r="D4" s="8" t="s">
+        <v>141</v>
       </c>
       <c r="E4" s="3">
-        <v>380633237376</v>
+        <v>940633237376</v>
       </c>
       <c r="F4" s="4">
-        <v>9746369923</v>
+        <v>9744469923</v>
       </c>
       <c r="G4" s="2" t="s">
-        <v>83</v>
+        <v>77</v>
       </c>
       <c r="H4" s="2" t="s">
-        <v>123</v>
+        <v>99</v>
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A5" s="2" t="s">
-        <v>29</v>
+        <v>24</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D5" s="2" t="s">
-        <v>15</v>
+        <v>7</v>
+      </c>
+      <c r="D5" s="8" t="s">
+        <v>142</v>
       </c>
       <c r="E5" s="3">
-        <v>976874184051</v>
+        <v>976874444051</v>
       </c>
       <c r="F5" s="4">
-        <v>8891678374</v>
+        <v>8844678374</v>
       </c>
       <c r="G5" s="2" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="H5" s="2" t="s">
-        <v>124</v>
+        <v>100</v>
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A6" s="2" t="s">
-        <v>31</v>
+        <v>26</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>32</v>
+        <v>27</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D6" s="2" t="s">
-        <v>16</v>
+        <v>8</v>
+      </c>
+      <c r="D6" s="8" t="s">
+        <v>143</v>
       </c>
       <c r="E6" s="3">
-        <v>295263218509</v>
+        <v>295263448509</v>
       </c>
       <c r="F6" s="4">
-        <v>9446529488</v>
+        <v>9446449488</v>
       </c>
       <c r="G6" s="2" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="H6" s="2" t="s">
-        <v>160</v>
+        <v>134</v>
       </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A7" s="2" t="s">
-        <v>33</v>
+        <v>28</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="D7" s="2" t="s">
-        <v>17</v>
+        <v>9</v>
+      </c>
+      <c r="D7" s="8" t="s">
+        <v>144</v>
       </c>
       <c r="E7" s="3">
-        <v>449642236074</v>
+        <v>449642446074</v>
       </c>
       <c r="F7" s="4">
-        <v>9447465433</v>
+        <v>9447444433</v>
       </c>
       <c r="G7" s="2" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="H7" s="2" t="s">
-        <v>161</v>
+        <v>135</v>
       </c>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A8" s="2" t="s">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>36</v>
+        <v>31</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>147</v>
-      </c>
-      <c r="D8" s="2" t="s">
-        <v>18</v>
+        <v>121</v>
+      </c>
+      <c r="D8" s="8" t="s">
+        <v>145</v>
       </c>
       <c r="E8" s="3">
-        <v>260223020436</v>
+        <v>260223440436</v>
       </c>
       <c r="F8" s="4">
-        <v>9847991107</v>
+        <v>9844991107</v>
       </c>
       <c r="G8" s="2" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="H8" s="2" t="s">
-        <v>125</v>
+        <v>101</v>
       </c>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A9" s="2" t="s">
-        <v>37</v>
+        <v>32</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>38</v>
+        <v>33</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>148</v>
-      </c>
-      <c r="D9" s="2" t="s">
-        <v>84</v>
+        <v>122</v>
+      </c>
+      <c r="D9" s="8" t="s">
+        <v>146</v>
       </c>
       <c r="E9" s="3">
-        <v>474444366048</v>
+        <v>474444446048</v>
       </c>
       <c r="F9" s="4">
         <v>8086637900</v>
       </c>
       <c r="G9" s="2" t="s">
-        <v>85</v>
+        <v>78</v>
       </c>
       <c r="H9" s="2" t="s">
-        <v>126</v>
+        <v>102</v>
       </c>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A10" s="2" t="s">
-        <v>39</v>
+        <v>34</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>40</v>
+        <v>35</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>149</v>
-      </c>
-      <c r="D10" s="2" t="s">
-        <v>141</v>
+        <v>123</v>
+      </c>
+      <c r="D10" s="8" t="s">
+        <v>147</v>
       </c>
       <c r="E10" s="3">
-        <v>206149314226</v>
+        <v>206449314226</v>
       </c>
       <c r="F10" s="4">
         <v>9447913414</v>
       </c>
       <c r="G10" s="2" t="s">
-        <v>143</v>
+        <v>117</v>
       </c>
       <c r="H10" s="2" t="s">
-        <v>127</v>
+        <v>103</v>
       </c>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A11" s="2" t="s">
-        <v>41</v>
+        <v>36</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>42</v>
+        <v>37</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="D11" s="2" t="s">
-        <v>86</v>
+        <v>38</v>
+      </c>
+      <c r="D11" s="8" t="s">
+        <v>148</v>
       </c>
       <c r="E11" s="3">
         <v>334577122417</v>
@@ -1184,24 +1195,24 @@
         <v>9847050427</v>
       </c>
       <c r="G11" s="2" t="s">
-        <v>87</v>
+        <v>79</v>
       </c>
       <c r="H11" s="2" t="s">
-        <v>140</v>
+        <v>116</v>
       </c>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A12" s="2" t="s">
-        <v>44</v>
+        <v>39</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>150</v>
-      </c>
-      <c r="D12" s="2" t="s">
-        <v>88</v>
+        <v>124</v>
+      </c>
+      <c r="D12" s="8" t="s">
+        <v>149</v>
       </c>
       <c r="E12" s="3">
         <v>462348686482</v>
@@ -1210,76 +1221,76 @@
         <v>9495335910</v>
       </c>
       <c r="G12" s="2" t="s">
-        <v>89</v>
+        <v>80</v>
       </c>
       <c r="H12" s="2" t="s">
-        <v>162</v>
+        <v>136</v>
       </c>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A13" s="2" t="s">
-        <v>46</v>
+        <v>41</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>158</v>
+        <v>132</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>151</v>
-      </c>
-      <c r="D13" s="2" t="s">
-        <v>90</v>
+        <v>125</v>
+      </c>
+      <c r="D13" s="8" t="s">
+        <v>150</v>
       </c>
       <c r="E13" s="3">
         <v>230411800296</v>
       </c>
       <c r="F13" s="4" t="s">
-        <v>120</v>
+        <v>96</v>
       </c>
       <c r="G13" s="2" t="s">
-        <v>91</v>
+        <v>81</v>
       </c>
       <c r="H13" s="2" t="s">
-        <v>145</v>
+        <v>119</v>
       </c>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A14" s="2" t="s">
-        <v>47</v>
+        <v>42</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>48</v>
+        <v>43</v>
       </c>
       <c r="C14" s="2" t="s">
-        <v>49</v>
-      </c>
-      <c r="D14" s="2" t="s">
-        <v>92</v>
+        <v>44</v>
+      </c>
+      <c r="D14" s="8" t="s">
+        <v>151</v>
       </c>
       <c r="E14" s="3">
         <v>967060147266</v>
       </c>
       <c r="F14" s="4" t="s">
-        <v>121</v>
+        <v>97</v>
       </c>
       <c r="G14" s="2" t="s">
-        <v>93</v>
+        <v>82</v>
       </c>
       <c r="H14" s="2" t="s">
-        <v>128</v>
+        <v>104</v>
       </c>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A15" s="2" t="s">
-        <v>50</v>
+        <v>45</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>51</v>
+        <v>46</v>
       </c>
       <c r="C15" s="2" t="s">
-        <v>52</v>
-      </c>
-      <c r="D15" s="2" t="s">
-        <v>94</v>
+        <v>47</v>
+      </c>
+      <c r="D15" s="8" t="s">
+        <v>152</v>
       </c>
       <c r="E15" s="3">
         <v>895456519303</v>
@@ -1288,24 +1299,24 @@
         <v>9846296510</v>
       </c>
       <c r="G15" s="2" t="s">
-        <v>95</v>
+        <v>83</v>
       </c>
       <c r="H15" s="5" t="s">
-        <v>163</v>
+        <v>137</v>
       </c>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A16" s="2" t="s">
-        <v>53</v>
+        <v>48</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>54</v>
+        <v>49</v>
       </c>
       <c r="C16" s="2" t="s">
-        <v>152</v>
-      </c>
-      <c r="D16" s="2" t="s">
-        <v>96</v>
+        <v>126</v>
+      </c>
+      <c r="D16" s="8" t="s">
+        <v>153</v>
       </c>
       <c r="E16" s="3">
         <v>921861053037</v>
@@ -1314,24 +1325,24 @@
         <v>9446448620</v>
       </c>
       <c r="G16" s="2" t="s">
-        <v>97</v>
+        <v>84</v>
       </c>
       <c r="H16" s="2" t="s">
-        <v>139</v>
+        <v>115</v>
       </c>
     </row>
     <row r="17" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A17" s="2" t="s">
-        <v>55</v>
+        <v>50</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>56</v>
+        <v>51</v>
       </c>
       <c r="C17" s="2" t="s">
-        <v>57</v>
-      </c>
-      <c r="D17" s="2" t="s">
-        <v>98</v>
+        <v>52</v>
+      </c>
+      <c r="D17" s="8" t="s">
+        <v>154</v>
       </c>
       <c r="E17" s="3">
         <v>983782478689</v>
@@ -1340,24 +1351,24 @@
         <v>9447369677</v>
       </c>
       <c r="G17" s="2" t="s">
-        <v>99</v>
+        <v>85</v>
       </c>
       <c r="H17" s="2" t="s">
-        <v>129</v>
+        <v>105</v>
       </c>
     </row>
     <row r="18" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A18" s="2" t="s">
-        <v>58</v>
+        <v>53</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>59</v>
+        <v>54</v>
       </c>
       <c r="C18" s="2" t="s">
-        <v>153</v>
-      </c>
-      <c r="D18" s="2" t="s">
-        <v>100</v>
+        <v>127</v>
+      </c>
+      <c r="D18" s="8" t="s">
+        <v>155</v>
       </c>
       <c r="E18" s="3">
         <v>321877592199</v>
@@ -1366,24 +1377,24 @@
         <v>9847227242</v>
       </c>
       <c r="G18" s="2" t="s">
-        <v>101</v>
+        <v>86</v>
       </c>
       <c r="H18" s="2" t="s">
-        <v>130</v>
+        <v>106</v>
       </c>
     </row>
     <row r="19" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A19" s="2" t="s">
-        <v>60</v>
+        <v>55</v>
       </c>
       <c r="B19" s="2" t="s">
-        <v>61</v>
+        <v>56</v>
       </c>
       <c r="C19" s="2" t="s">
-        <v>154</v>
-      </c>
-      <c r="D19" s="2" t="s">
-        <v>102</v>
+        <v>128</v>
+      </c>
+      <c r="D19" s="8" t="s">
+        <v>156</v>
       </c>
       <c r="E19" s="3">
         <v>908862289122</v>
@@ -1392,24 +1403,24 @@
         <v>9447138342</v>
       </c>
       <c r="G19" s="2" t="s">
-        <v>103</v>
+        <v>87</v>
       </c>
       <c r="H19" s="2" t="s">
-        <v>131</v>
+        <v>107</v>
       </c>
     </row>
     <row r="20" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A20" s="2" t="s">
-        <v>62</v>
+        <v>57</v>
       </c>
       <c r="B20" s="2" t="s">
-        <v>59</v>
+        <v>54</v>
       </c>
       <c r="C20" s="2" t="s">
-        <v>63</v>
-      </c>
-      <c r="D20" s="2" t="s">
-        <v>104</v>
+        <v>58</v>
+      </c>
+      <c r="D20" s="8" t="s">
+        <v>157</v>
       </c>
       <c r="E20" s="3">
         <v>258633491201</v>
@@ -1418,24 +1429,24 @@
         <v>9388841664</v>
       </c>
       <c r="G20" s="2" t="s">
-        <v>105</v>
+        <v>88</v>
       </c>
       <c r="H20" s="2" t="s">
-        <v>132</v>
+        <v>108</v>
       </c>
     </row>
     <row r="21" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A21" s="2" t="s">
-        <v>64</v>
+        <v>59</v>
       </c>
       <c r="B21" s="2" t="s">
-        <v>65</v>
+        <v>60</v>
       </c>
       <c r="C21" s="2" t="s">
-        <v>66</v>
-      </c>
-      <c r="D21" s="2" t="s">
-        <v>106</v>
+        <v>61</v>
+      </c>
+      <c r="D21" s="8" t="s">
+        <v>158</v>
       </c>
       <c r="E21" s="3">
         <v>233753505987</v>
@@ -1444,24 +1455,24 @@
         <v>9447069417</v>
       </c>
       <c r="G21" s="2" t="s">
-        <v>107</v>
+        <v>89</v>
       </c>
       <c r="H21" s="2" t="s">
-        <v>133</v>
+        <v>109</v>
       </c>
     </row>
     <row r="22" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A22" s="2" t="s">
-        <v>67</v>
+        <v>62</v>
       </c>
       <c r="B22" s="2" t="s">
-        <v>68</v>
+        <v>63</v>
       </c>
       <c r="C22" s="2" t="s">
-        <v>155</v>
-      </c>
-      <c r="D22" s="2" t="s">
-        <v>108</v>
+        <v>129</v>
+      </c>
+      <c r="D22" s="8" t="s">
+        <v>159</v>
       </c>
       <c r="E22" s="3">
         <v>567037682212</v>
@@ -1470,24 +1481,24 @@
         <v>9846028686</v>
       </c>
       <c r="G22" s="2" t="s">
-        <v>109</v>
+        <v>90</v>
       </c>
       <c r="H22" s="5" t="s">
-        <v>136</v>
+        <v>112</v>
       </c>
     </row>
     <row r="23" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A23" s="2" t="s">
-        <v>69</v>
+        <v>64</v>
       </c>
       <c r="B23" s="2" t="s">
-        <v>70</v>
+        <v>65</v>
       </c>
       <c r="C23" s="2" t="s">
-        <v>71</v>
-      </c>
-      <c r="D23" s="2" t="s">
-        <v>110</v>
+        <v>66</v>
+      </c>
+      <c r="D23" s="8" t="s">
+        <v>160</v>
       </c>
       <c r="E23" s="3">
         <v>691791320601</v>
@@ -1496,24 +1507,24 @@
         <v>9388603376</v>
       </c>
       <c r="G23" s="2" t="s">
-        <v>111</v>
+        <v>91</v>
       </c>
       <c r="H23" s="2" t="s">
-        <v>134</v>
+        <v>110</v>
       </c>
     </row>
     <row r="24" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A24" s="2" t="s">
-        <v>72</v>
+        <v>67</v>
       </c>
       <c r="B24" s="2" t="s">
-        <v>73</v>
+        <v>68</v>
       </c>
       <c r="C24" s="2" t="s">
-        <v>74</v>
-      </c>
-      <c r="D24" s="2" t="s">
-        <v>112</v>
+        <v>69</v>
+      </c>
+      <c r="D24" s="8" t="s">
+        <v>161</v>
       </c>
       <c r="E24" s="3">
         <v>725749610681</v>
@@ -1522,24 +1533,24 @@
         <v>9847178721</v>
       </c>
       <c r="G24" s="2" t="s">
-        <v>113</v>
+        <v>92</v>
       </c>
       <c r="H24" t="s">
-        <v>135</v>
+        <v>111</v>
       </c>
     </row>
     <row r="25" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A25" s="2" t="s">
-        <v>75</v>
+        <v>70</v>
       </c>
       <c r="B25" s="2" t="s">
-        <v>76</v>
+        <v>71</v>
       </c>
       <c r="C25" s="2" t="s">
-        <v>77</v>
-      </c>
-      <c r="D25" s="2" t="s">
-        <v>114</v>
+        <v>72</v>
+      </c>
+      <c r="D25" s="8" t="s">
+        <v>162</v>
       </c>
       <c r="E25" s="3">
         <v>694535464829</v>
@@ -1548,24 +1559,24 @@
         <v>9895275162</v>
       </c>
       <c r="G25" s="2" t="s">
-        <v>115</v>
+        <v>93</v>
       </c>
       <c r="H25" s="5" t="s">
-        <v>164</v>
+        <v>138</v>
       </c>
     </row>
     <row r="26" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A26" s="2" t="s">
-        <v>78</v>
+        <v>73</v>
       </c>
       <c r="B26" s="2" t="s">
-        <v>79</v>
+        <v>74</v>
       </c>
       <c r="C26" s="2" t="s">
-        <v>156</v>
-      </c>
-      <c r="D26" s="2" t="s">
-        <v>116</v>
+        <v>130</v>
+      </c>
+      <c r="D26" s="8" t="s">
+        <v>163</v>
       </c>
       <c r="E26" s="3">
         <v>684703013868</v>
@@ -1574,24 +1585,24 @@
         <v>9349752771</v>
       </c>
       <c r="G26" s="2" t="s">
-        <v>117</v>
+        <v>94</v>
       </c>
       <c r="H26" s="2" t="s">
-        <v>137</v>
+        <v>113</v>
       </c>
     </row>
     <row r="27" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A27" s="2" t="s">
-        <v>80</v>
+        <v>75</v>
       </c>
       <c r="B27" s="2" t="s">
-        <v>81</v>
+        <v>76</v>
       </c>
       <c r="C27" s="2" t="s">
-        <v>157</v>
-      </c>
-      <c r="D27" s="2" t="s">
-        <v>118</v>
+        <v>131</v>
+      </c>
+      <c r="D27" s="8" t="s">
+        <v>164</v>
       </c>
       <c r="E27" s="3">
         <v>980873240580</v>
@@ -1600,10 +1611,10 @@
         <v>9846018686</v>
       </c>
       <c r="G27" s="2" t="s">
-        <v>119</v>
+        <v>95</v>
       </c>
       <c r="H27" s="2" t="s">
-        <v>138</v>
+        <v>114</v>
       </c>
     </row>
     <row r="28" spans="1:8" x14ac:dyDescent="0.2">
@@ -1737,7 +1748,35 @@
       <c r="H40" s="2"/>
     </row>
   </sheetData>
+  <hyperlinks>
+    <hyperlink ref="D2" r:id="rId1" xr:uid="{CAAE5EDB-A53C-3F43-BE6A-68C11E91B03D}"/>
+    <hyperlink ref="D3" r:id="rId2" xr:uid="{D2E985C4-959E-A04B-9A3F-42C0EB0EB799}"/>
+    <hyperlink ref="D4" r:id="rId3" xr:uid="{2FBC332A-007E-BF4D-BC6C-AA4DFBAD74AB}"/>
+    <hyperlink ref="D5" r:id="rId4" xr:uid="{8FD6B2B8-1CCD-3042-95D1-506805C7BF94}"/>
+    <hyperlink ref="D6" r:id="rId5" xr:uid="{67CE73D0-D55D-FA4D-B36D-F00275385FFB}"/>
+    <hyperlink ref="D7" r:id="rId6" xr:uid="{59F25EC4-FFFD-8D4A-BF2B-B503F0EABD17}"/>
+    <hyperlink ref="D8" r:id="rId7" xr:uid="{20BE6563-6792-C44C-81E3-E88CE6429B7A}"/>
+    <hyperlink ref="D9" r:id="rId8" xr:uid="{4885EF67-6579-1444-BAAC-2D04B9470ED6}"/>
+    <hyperlink ref="D10" r:id="rId9" xr:uid="{4D375A34-5EA1-144B-9EEC-9D58796AA85C}"/>
+    <hyperlink ref="D11" r:id="rId10" xr:uid="{8242748A-E336-DC4C-970F-6AAD95420D03}"/>
+    <hyperlink ref="D12" r:id="rId11" xr:uid="{C9A39CFE-73FE-1944-BD48-1C5975161692}"/>
+    <hyperlink ref="D13" r:id="rId12" xr:uid="{2091FF28-A6EE-8543-BB07-267D9CF763EA}"/>
+    <hyperlink ref="D14" r:id="rId13" xr:uid="{2621FB31-DF2F-6346-9548-465D664197CF}"/>
+    <hyperlink ref="D15" r:id="rId14" xr:uid="{6C1AA207-38BD-634E-889F-F3D901B439E7}"/>
+    <hyperlink ref="D16" r:id="rId15" xr:uid="{340C1B3D-53FF-7344-B54B-987D0F5A4463}"/>
+    <hyperlink ref="D17" r:id="rId16" xr:uid="{9DB43152-FCCA-C344-9BDE-CBB2E968A38F}"/>
+    <hyperlink ref="D18" r:id="rId17" xr:uid="{CB429C46-4991-5648-A597-1A2EFA499F16}"/>
+    <hyperlink ref="D19" r:id="rId18" xr:uid="{61A00BC7-59A2-0246-8054-F4F8FCD01588}"/>
+    <hyperlink ref="D20" r:id="rId19" xr:uid="{84B687EA-3CF1-4C4F-BEA1-D83029ED588D}"/>
+    <hyperlink ref="D21" r:id="rId20" xr:uid="{A271192A-5B32-D44A-944B-9E8124ED5173}"/>
+    <hyperlink ref="D22" r:id="rId21" xr:uid="{DE41D6CA-297D-0F42-A26D-1FA3626FC24F}"/>
+    <hyperlink ref="D23" r:id="rId22" xr:uid="{7BC61169-4A1E-804E-9F4C-4181CA2E46E9}"/>
+    <hyperlink ref="D24" r:id="rId23" xr:uid="{F6D13042-DDBD-264C-8D54-BE1FE35C0F44}"/>
+    <hyperlink ref="D25" r:id="rId24" xr:uid="{5DF03EDB-864B-1248-A76B-A8D6226315C7}"/>
+    <hyperlink ref="D26" r:id="rId25" xr:uid="{76CA87C0-7825-ED47-8D9B-0AED50931F9B}"/>
+    <hyperlink ref="D27" r:id="rId26" xr:uid="{A3BF1445-391A-E947-A3C2-7B719E8B716A}"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967293" verticalDpi="0" r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967293" verticalDpi="0" r:id="rId27"/>
 </worksheet>
 </file>